--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Vip-Vipr1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Vip-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,15 @@
   </si>
   <si>
     <t>Vipr1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +531,303 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1.119963</v>
+      </c>
+      <c r="H2">
+        <v>3.359889</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M2">
+        <v>0.1429513333333333</v>
+      </c>
+      <c r="N2">
+        <v>0.428854</v>
+      </c>
+      <c r="O2">
+        <v>0.1058099051556342</v>
+      </c>
+      <c r="P2">
+        <v>0.1058099051556342</v>
+      </c>
+      <c r="Q2">
+        <v>0.160100204134</v>
+      </c>
+      <c r="R2">
+        <v>1.440901837206</v>
+      </c>
+      <c r="S2">
+        <v>0.1058099051556342</v>
+      </c>
+      <c r="T2">
+        <v>0.1058099051556342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1.03772637990005</v>
-      </c>
-      <c r="H2">
-        <v>1.03772637990005</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0.142185785746619</v>
-      </c>
-      <c r="N2">
-        <v>0.142185785746619</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0.1475499407160831</v>
-      </c>
-      <c r="R2">
-        <v>0.1475499407160831</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.119963</v>
+      </c>
+      <c r="H3">
+        <v>3.359889</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.027509</v>
+      </c>
+      <c r="N3">
+        <v>0.082527</v>
+      </c>
+      <c r="O3">
+        <v>0.02036164765346488</v>
+      </c>
+      <c r="P3">
+        <v>0.02036164765346487</v>
+      </c>
+      <c r="Q3">
+        <v>0.030809062167</v>
+      </c>
+      <c r="R3">
+        <v>0.277281559503</v>
+      </c>
+      <c r="S3">
+        <v>0.02036164765346488</v>
+      </c>
+      <c r="T3">
+        <v>0.02036164765346487</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1.119963</v>
+      </c>
+      <c r="H4">
+        <v>3.359889</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.047884</v>
+      </c>
+      <c r="N4">
+        <v>0.143652</v>
+      </c>
+      <c r="O4">
+        <v>0.03544284184225206</v>
+      </c>
+      <c r="P4">
+        <v>0.03544284184225206</v>
+      </c>
+      <c r="Q4">
+        <v>0.05362830829200001</v>
+      </c>
+      <c r="R4">
+        <v>0.482654774628</v>
+      </c>
+      <c r="S4">
+        <v>0.03544284184225206</v>
+      </c>
+      <c r="T4">
+        <v>0.03544284184225206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.119963</v>
+      </c>
+      <c r="H5">
+        <v>3.359889</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.9738796666666668</v>
+      </c>
+      <c r="N5">
+        <v>2.921639</v>
+      </c>
+      <c r="O5">
+        <v>0.7208475273379799</v>
+      </c>
+      <c r="P5">
+        <v>0.7208475273379799</v>
+      </c>
+      <c r="Q5">
+        <v>1.090709193119</v>
+      </c>
+      <c r="R5">
+        <v>9.816382738071001</v>
+      </c>
+      <c r="S5">
+        <v>0.7208475273379799</v>
+      </c>
+      <c r="T5">
+        <v>0.7208475273379799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1.119963</v>
+      </c>
+      <c r="H6">
+        <v>3.359889</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1587963333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.476389</v>
+      </c>
+      <c r="O6">
+        <v>0.1175380780106689</v>
+      </c>
+      <c r="P6">
+        <v>0.1175380780106689</v>
+      </c>
+      <c r="Q6">
+        <v>0.177846017869</v>
+      </c>
+      <c r="R6">
+        <v>1.600614160821</v>
+      </c>
+      <c r="S6">
+        <v>0.1175380780106689</v>
+      </c>
+      <c r="T6">
+        <v>0.1175380780106689</v>
       </c>
     </row>
   </sheetData>
